--- a/DataSheets/co.xlsx
+++ b/DataSheets/co.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\Project_REDSight_DBMS_GROUP_1\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269EA9AE-3D52-48D6-9028-60AADB84948E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DE0969-17EE-45B5-BD92-0A40ED7318E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{42F856A4-A107-4B54-8095-D2FA1214D242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{42F856A4-A107-4B54-8095-D2FA1214D242}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1652,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED51A0B7-3066-414A-986D-CD3037C12BBF}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.85546875" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1700,7 @@
         <v>33.33</v>
       </c>
       <c r="E2" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>175</v>
@@ -1769,7 +1769,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>175</v>
@@ -1907,7 +1907,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>175</v>
@@ -2114,7 +2114,7 @@
         <v>33.33</v>
       </c>
       <c r="E20" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>175</v>
@@ -2390,7 +2390,7 @@
         <v>33.33</v>
       </c>
       <c r="E32" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>175</v>
